--- a/output/Liquidacion_ALVARADO_LUGO_DIANA_CAROLINA.xlsx
+++ b/output/Liquidacion_ALVARADO_LUGO_DIANA_CAROLINA.xlsx
@@ -4646,9 +4646,7 @@
       <c r="AB105" s="159" t="n"/>
       <c r="AC105" s="43" t="n"/>
       <c r="AD105" s="43" t="n"/>
-      <c r="AE105" s="43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE105" s="43" t="n"/>
       <c r="AF105" s="43" t="n"/>
       <c r="AG105" s="43" t="n"/>
       <c r="AH105" s="43" t="n"/>
@@ -4686,9 +4684,7 @@
       <c r="AB106" s="159" t="n"/>
       <c r="AC106" s="43" t="n"/>
       <c r="AD106" s="43" t="n"/>
-      <c r="AE106" s="43" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE106" s="43" t="n"/>
       <c r="AF106" s="43" t="n"/>
       <c r="AG106" s="43" t="n"/>
       <c r="AH106" s="43" t="n"/>
@@ -4700,7 +4696,11 @@
     </row>
     <row r="107" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B107" s="43" t="n"/>
-      <c r="D107" s="115" t="n"/>
+      <c r="D107" s="115" t="inlineStr">
+        <is>
+          <t>Por Días</t>
+        </is>
+      </c>
       <c r="F107" s="112" t="n"/>
       <c r="H107" s="129" t="n"/>
       <c r="I107" s="112" t="n"/>
@@ -4727,14 +4727,23 @@
       <c r="B108" s="43" t="n"/>
       <c r="D108" s="115" t="inlineStr">
         <is>
-          <t>Por Meses Completos: 2 mer Tramo</t>
+          <t>49.7 / 30</t>
         </is>
       </c>
       <c r="F108" s="112" t="n"/>
-      <c r="H108" s="129" t="n"/>
+      <c r="H108" s="129" t="n">
+        <v>1.655092592592593</v>
+      </c>
       <c r="I108" s="112" t="n"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0 días</t>
+        </is>
+      </c>
       <c r="K108" s="129" t="n"/>
-      <c r="S108" s="110" t="n"/>
+      <c r="S108" s="110" t="n">
+        <v>0</v>
+      </c>
       <c r="U108" s="113" t="n"/>
       <c r="Y108" s="43" t="n"/>
       <c r="Z108" s="43" t="n"/>
@@ -4742,9 +4751,7 @@
       <c r="AB108" s="159" t="n"/>
       <c r="AC108" s="43" t="n"/>
       <c r="AD108" s="43" t="n"/>
-      <c r="AE108" s="43" t="n">
-        <v>6</v>
-      </c>
+      <c r="AE108" s="43" t="n"/>
       <c r="AF108" s="43" t="n"/>
       <c r="AG108" s="43" t="n"/>
       <c r="AH108" s="43" t="n"/>
@@ -4756,24 +4763,18 @@
     </row>
     <row r="109" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B109" s="43" t="n"/>
-      <c r="D109" s="115" t="inlineStr">
-        <is>
-          <t>595 / 12</t>
-        </is>
-      </c>
+      <c r="D109" s="115" t="n"/>
       <c r="F109" s="112" t="n"/>
-      <c r="H109" s="129" t="n">
+      <c r="H109" s="129" t="n"/>
+      <c r="I109" s="112" t="n"/>
+      <c r="K109" s="129" t="n"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>TOTAL CTS</t>
+        </is>
+      </c>
+      <c r="S109" s="110" t="n">
         <v>49.65277777777778</v>
-      </c>
-      <c r="I109" s="112" t="n"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>6 meses</t>
-        </is>
-      </c>
-      <c r="K109" s="129" t="n"/>
-      <c r="S109" s="110" t="n">
-        <v>297.9166666666667</v>
       </c>
       <c r="U109" s="113" t="n"/>
       <c r="Y109" s="43" t="n"/>
@@ -4782,9 +4783,7 @@
       <c r="AB109" s="159" t="n"/>
       <c r="AC109" s="43" t="n"/>
       <c r="AD109" s="43" t="n"/>
-      <c r="AE109" s="43" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE109" s="43" t="n"/>
       <c r="AF109" s="43" t="n"/>
       <c r="AG109" s="43" t="n"/>
       <c r="AH109" s="43" t="n"/>
@@ -4801,6 +4800,11 @@
       <c r="H110" s="129" t="n"/>
       <c r="I110" s="112" t="n"/>
       <c r="K110" s="129" t="n"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>INTERES LABORAL</t>
+        </is>
+      </c>
       <c r="S110" s="110" t="n"/>
       <c r="U110" s="113" t="n"/>
       <c r="Y110" s="43" t="n"/>
@@ -4827,7 +4831,11 @@
     </row>
     <row r="111" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B111" s="43" t="n"/>
-      <c r="D111" s="115" t="n"/>
+      <c r="D111" s="115" t="inlineStr">
+        <is>
+          <t>Por Meses Completos: 2 mer Tramo</t>
+        </is>
+      </c>
       <c r="F111" s="112" t="n"/>
       <c r="H111" s="129" t="n"/>
       <c r="I111" s="112" t="n"/>
@@ -4839,6 +4847,11 @@
       </c>
       <c r="L111" s="107" t="n">
         <v>0.00039</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Total CTS, Interes Laboral</t>
+        </is>
       </c>
       <c r="S111" s="110" t="n"/>
       <c r="U111" s="113" t="n"/>
@@ -4866,18 +4879,35 @@
     </row>
     <row r="112" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B112" s="43" t="n"/>
-      <c r="D112" s="115" t="n"/>
+      <c r="D112" s="115" t="inlineStr">
+        <is>
+          <t>595 / 12</t>
+        </is>
+      </c>
       <c r="F112" s="112" t="n"/>
-      <c r="H112" s="129" t="n"/>
+      <c r="H112" s="129" t="n">
+        <v>49.65277777777778</v>
+      </c>
       <c r="I112" s="112" t="n"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>6 meses</t>
+        </is>
+      </c>
       <c r="K112" s="129" t="n"/>
-      <c r="S112" s="110" t="n"/>
+      <c r="S112" s="110" t="n">
+        <v>297.9166666666667</v>
+      </c>
       <c r="U112" s="113" t="n"/>
       <c r="Y112" s="43" t="n"/>
     </row>
     <row r="113" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B113" s="43" t="n"/>
-      <c r="D113" s="115" t="n"/>
+      <c r="D113" s="115" t="inlineStr">
+        <is>
+          <t>Por Días</t>
+        </is>
+      </c>
       <c r="F113" s="112" t="n"/>
       <c r="H113" s="129" t="n"/>
       <c r="I113" s="112" t="n"/>
@@ -4898,12 +4928,25 @@
     </row>
     <row r="114" ht="9.949999999999999" customFormat="1" customHeight="1" s="107">
       <c r="B114" s="43" t="n"/>
-      <c r="D114" s="115" t="n"/>
+      <c r="D114" s="115" t="inlineStr">
+        <is>
+          <t>49.7 / 30</t>
+        </is>
+      </c>
       <c r="F114" s="112" t="n"/>
-      <c r="H114" s="129" t="n"/>
+      <c r="H114" s="129" t="n">
+        <v>1.655092592592593</v>
+      </c>
       <c r="I114" s="112" t="n"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0 días</t>
+        </is>
+      </c>
       <c r="K114" s="129" t="n"/>
-      <c r="S114" s="110" t="n"/>
+      <c r="S114" s="110" t="n">
+        <v>0</v>
+      </c>
       <c r="U114" s="113" t="n"/>
       <c r="Y114" s="43" t="n"/>
     </row>
@@ -4914,7 +4957,14 @@
       <c r="H115" s="129" t="n"/>
       <c r="I115" s="112" t="n"/>
       <c r="K115" s="129" t="n"/>
-      <c r="S115" s="110" t="n"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>TOTAL CTS</t>
+        </is>
+      </c>
+      <c r="S115" s="110" t="n">
+        <v>297.9166666666667</v>
+      </c>
       <c r="U115" s="113" t="n"/>
       <c r="Y115" s="43" t="n"/>
       <c r="AA115" s="115" t="n"/>
@@ -4935,6 +4985,11 @@
       <c r="H116" s="129" t="n"/>
       <c r="I116" s="112" t="n"/>
       <c r="K116" s="129" t="n"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>INTERES LABORAL</t>
+        </is>
+      </c>
       <c r="S116" s="110" t="n"/>
       <c r="U116" s="113" t="n"/>
       <c r="Y116" s="43" t="n"/>
@@ -4946,6 +5001,11 @@
       <c r="H117" s="129" t="n"/>
       <c r="I117" s="112" t="n"/>
       <c r="K117" s="129" t="n"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Total CTS, Interes Laboral</t>
+        </is>
+      </c>
       <c r="S117" s="110" t="n"/>
       <c r="U117" s="113" t="n"/>
       <c r="Y117" s="43" t="n"/>
